--- a/LEVEL - 1/Quiz 1_Makeup.xlsx
+++ b/LEVEL - 1/Quiz 1_Makeup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubh\Documents\data_analytics_with_excel\LEVEL - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9BA68F-F99C-488C-A765-874E0C0B42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CF65B85-424A-423A-A933-0841751B7A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <webPublishing codePage="1252"/>
   <extLst>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="42">
   <si>
     <t>Jen</t>
   </si>
@@ -227,6 +227,9 @@
   <si>
     <t>Years</t>
   </si>
+  <si>
+    <t>What is the total dollar amount of merchandise sold by each salesperson? Mark the answer for Zaret. </t>
+  </si>
 </sst>
 </file>
 
@@ -236,9 +239,9 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -265,8 +268,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D3B45"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +345,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -357,6 +372,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -369,65 +389,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -15912,7 +15884,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88E0B7A1-09E2-4854-AFA9-5AFC6B661F25}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88E0B7A1-09E2-4854-AFA9-5AFC6B661F25}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K52:Q63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -16045,10 +16017,10 @@
     <pageField fld="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Dollars" fld="5" baseField="0" baseItem="0" numFmtId="173"/>
+    <dataField name="Sum of Dollars" fld="5" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16387,8 +16359,8 @@
   </sheetPr>
   <dimension ref="A1:SD1901"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16654,6 +16626,9 @@
         <f>SUMIF($B$2:$B$1901,K3,$F$2:$F$1901)</f>
         <v>25258.874171963438</v>
       </c>
+      <c r="N3" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="S3" s="8" t="str">
         <f>IF(AND(_xlfn.ISFORMULA(L3),T3=L3),"Correct","Wrong")</f>
         <v>Correct</v>
@@ -16726,6 +16701,7 @@
         <f t="shared" si="0"/>
         <v>25947.235264132571</v>
       </c>
+      <c r="R5" s="28"/>
       <c r="S5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Correct</v>
@@ -16996,14 +16972,14 @@
       <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -17108,14 +17084,14 @@
       <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -17221,14 +17197,14 @@
       <c r="J21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -17358,12 +17334,12 @@
         <v>-9.9439491268532194</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -17441,16 +17417,16 @@
         <v>233.05438870487612</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="S29" s="8"/>
@@ -17475,12 +17451,12 @@
         <v>233.35651970431758</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="S30" s="8"/>
@@ -18339,14 +18315,14 @@
       <c r="J48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
     </row>
     <row r="49" spans="1:498" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
@@ -18368,12 +18344,12 @@
         <v>113.03491000904664</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
     </row>
     <row r="50" spans="1:498" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
@@ -18395,7 +18371,7 @@
         <v>190.69511057123685</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="20" t="s">
         <v>40</v>
       </c>
       <c r="L50" t="s">
@@ -18443,7 +18419,7 @@
         <v>73.599272692165783</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="20" t="s">
         <v>38</v>
       </c>
       <c r="L52"/>
@@ -19475,25 +19451,25 @@
         <v>148.50659729480034</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="K54" s="25" t="s">
+      <c r="K54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="22">
         <v>5844.9487439548257</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="22">
         <v>4186.0586282395634</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N54" s="22">
         <v>6053.6845647560549</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="22">
         <v>3245.4429784805557</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="22">
         <v>6617.1003487015641</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="22">
         <v>25947.235264132563</v>
       </c>
       <c r="R54"/>
@@ -19998,25 +19974,25 @@
         <v>80.197912185633001</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="K55" s="25" t="s">
+      <c r="K55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="22">
         <v>6046.5342817912433</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="22">
         <v>8276.8429819789326</v>
       </c>
-      <c r="N55" s="26">
+      <c r="N55" s="22">
         <v>5683.9104455847391</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="22">
         <v>3968.6054956178609</v>
       </c>
-      <c r="P55" s="26">
+      <c r="P55" s="22">
         <v>4827.2539959100477</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="22">
         <v>28803.147200882824</v>
       </c>
       <c r="R55"/>
@@ -20521,25 +20497,25 @@
         <v>107.99264815962536</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="K56" s="25" t="s">
+      <c r="K56" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="22">
         <v>5982.8232912016865</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="22">
         <v>6198.248632380697</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N56" s="22">
         <v>5199.94920120388</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O56" s="22">
         <v>3148.8406504594477</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P56" s="22">
         <v>7060.7113972131237</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="22">
         <v>27590.573172458837</v>
       </c>
       <c r="R56"/>
@@ -21044,25 +21020,25 @@
         <v>26.909399775034267</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="K57" s="25" t="s">
+      <c r="K57" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="22">
         <v>3389.6253141943339</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="22">
         <v>6834.7676079924058</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N57" s="22">
         <v>5573.3237251253349</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="22">
         <v>2346.413777222308</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="22">
         <v>6746.5253677508181</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="22">
         <v>24890.655792285201</v>
       </c>
       <c r="R57"/>
@@ -21567,25 +21543,25 @@
         <v>148.777847479907</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="K58" s="25" t="s">
+      <c r="K58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="22">
         <v>5397.2736359804867</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="22">
         <v>5290.9899348532936</v>
       </c>
-      <c r="N58" s="26">
+      <c r="N58" s="22">
         <v>5297.9798099805539</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="22">
         <v>2401.6683433629355</v>
       </c>
-      <c r="P58" s="26">
+      <c r="P58" s="22">
         <v>5461.6469967318171</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q58" s="22">
         <v>23849.558720909088</v>
       </c>
       <c r="R58"/>
@@ -22090,25 +22066,25 @@
         <v>104.09375694795658</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="K59" s="25" t="s">
+      <c r="K59" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="22">
         <v>7587.3889798071586</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="22">
         <v>5492.7975790327473</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="22">
         <v>5270.2503134534709</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="22">
         <v>2189.1375682038929</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="22">
         <v>4719.299731466187</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="22">
         <v>25258.874171963456</v>
       </c>
       <c r="R59"/>
@@ -22613,25 +22589,25 @@
         <v>26.236564211223342</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="K60" s="25" t="s">
+      <c r="K60" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="26">
+      <c r="L60" s="22">
         <v>6964.6210744672253</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="22">
         <v>7256.2037260048064</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N60" s="22">
         <v>5603.1193784274219</v>
       </c>
-      <c r="O60" s="26">
+      <c r="O60" s="22">
         <v>3177.8713252359439</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="22">
         <v>5703.3466703488166</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="Q60" s="22">
         <v>28705.162174484212</v>
       </c>
       <c r="R60"/>
@@ -23136,25 +23112,25 @@
         <v>269.09085017901094</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="K61" s="25" t="s">
+      <c r="K61" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L61" s="26">
+      <c r="L61" s="22">
         <v>7010.4405139342298</v>
       </c>
-      <c r="M61" s="26">
+      <c r="M61" s="22">
         <v>5747.9483385515523</v>
       </c>
-      <c r="N61" s="26">
+      <c r="N61" s="22">
         <v>5461.6147895895683</v>
       </c>
-      <c r="O61" s="26">
+      <c r="O61" s="22">
         <v>3953.3001319646378</v>
       </c>
-      <c r="P61" s="26">
+      <c r="P61" s="22">
         <v>6877.2310013027191</v>
       </c>
-      <c r="Q61" s="26">
+      <c r="Q61" s="22">
         <v>29050.534775342712</v>
       </c>
       <c r="R61"/>
@@ -23659,25 +23635,25 @@
         <v>189.25415891346557</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="K62" s="25" t="s">
+      <c r="K62" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L62" s="22">
         <v>8270.1874774108983</v>
       </c>
-      <c r="M62" s="26">
+      <c r="M62" s="22">
         <v>6451.6500570754861</v>
       </c>
-      <c r="N62" s="26">
+      <c r="N62" s="22">
         <v>5690.811172904092</v>
       </c>
-      <c r="O62" s="26">
+      <c r="O62" s="22">
         <v>2448.707163014371</v>
       </c>
-      <c r="P62" s="26">
+      <c r="P62" s="22">
         <v>3879.9499441823205</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="Q62" s="22">
         <v>26741.305814587169</v>
       </c>
       <c r="R62"/>
@@ -24182,25 +24158,25 @@
         <v>71.313211840267556</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="K63" s="25" t="s">
+      <c r="K63" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="26">
+      <c r="L63" s="22">
         <v>56493.843312742087</v>
       </c>
-      <c r="M63" s="26">
+      <c r="M63" s="22">
         <v>55735.507486109491</v>
       </c>
-      <c r="N63" s="26">
+      <c r="N63" s="22">
         <v>49834.643401025118</v>
       </c>
-      <c r="O63" s="26">
+      <c r="O63" s="22">
         <v>26879.987433561953</v>
       </c>
-      <c r="P63" s="26">
+      <c r="P63" s="22">
         <v>51893.065453607407</v>
       </c>
-      <c r="Q63" s="26">
+      <c r="Q63" s="22">
         <v>240837.04708704606</v>
       </c>
       <c r="R63"/>
@@ -64317,37 +64293,37 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="L3:L11">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>($S$9="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>($S$15="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>($S$19="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>($S$23="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>($S$27="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>($S$32="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:P45">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>($S$34="Correct")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64359,6 +64335,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -64418,36 +64411,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92BE61B-EAAF-4AE4-97E5-15E5A9513D42}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41386B4E-0922-4FAB-9BA8-F4F0337B8A7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -64468,9 +64435,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41386B4E-0922-4FAB-9BA8-F4F0337B8A7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92BE61B-EAAF-4AE4-97E5-15E5A9513D42}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>